--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-897544.2442245468</v>
+        <v>-899431.8257409495</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224949.9251650686</v>
+        <v>389784.4698863199</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>110.2457338949317</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>155.863216678538</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>57.44045292477184</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>130.4629204134222</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>37.19452077384805</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>50.28788303971731</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>235.7412200973003</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>11.01369764937795</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>23.32897990642508</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>146.6850513083906</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>97.68000121430507</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.60428440447814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.76481347543245</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>40.04562296803755</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>100.404029864698</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>108.6493083062498</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,19 +2087,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896924</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>202.3878812911392</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>42.75700597799098</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>126.5538980153446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.1331334855863</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>48.73973632747322</v>
+        <v>47.10157674263907</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>34.84869466745846</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3016,7 +3016,7 @@
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.25783135597271</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.2891578932911</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
         <v>42.2873553346313</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2530.761074382118</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2276.999289020209</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1945.936401676639</v>
       </c>
       <c r="W2" t="n">
-        <v>1736.252158680222</v>
+        <v>1593.167746406525</v>
       </c>
       <c r="X2" t="n">
-        <v>1736.252158680222</v>
+        <v>1219.701988145445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.11282670441</v>
+        <v>829.562656169633</v>
       </c>
     </row>
     <row r="3">
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2349.71126146129</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>2349.71126146129</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>2349.71126146129</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>2349.71126146129</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2639.128431498251</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2639.128431498251</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2639.128431498251</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2349.71126146129</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>2349.71126146129</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>2349.71126146129</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.3850306156796</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C5" t="n">
-        <v>516.422513675268</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>516.422513675268</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>516.422513675268</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>509.4770129260645</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>91.51320482425137</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>91.51320482425137</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1271.984870679801</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>104.7388232746244</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.7388232746244</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.7388232746244</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.7388232746244</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1299.526533804879</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.526533804879</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2412.360787400195</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2412.360787400195</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2059.592132130081</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1686.126373869001</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1686.126373869001</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>77.5076079884706</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9622657131106</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9622657131106</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150933</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150933</v>
+        <v>259.1560728187103</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>1120.26893587578</v>
       </c>
       <c r="M12" t="n">
-        <v>1095.548343721096</v>
+        <v>1440.604255405482</v>
       </c>
       <c r="N12" t="n">
-        <v>1899.959921985247</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>714.6010158349783</v>
+        <v>514.9365816937659</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070714</v>
+        <v>346.000398765859</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947357</v>
+        <v>195.8837593535233</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>195.8837593535233</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>195.8837593535233</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5212,37 +5212,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473456</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687014</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687014</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687014</v>
+        <v>696.5850465240056</v>
       </c>
       <c r="X13" t="n">
-        <v>781.8780707889966</v>
+        <v>696.5850465240056</v>
       </c>
       <c r="Y13" t="n">
-        <v>714.6010158349783</v>
+        <v>696.5850465240056</v>
       </c>
     </row>
     <row r="14">
@@ -5255,22 +5255,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>327.180197328635</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M15" t="n">
-        <v>967.0546881959772</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.466266460128</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>517.9294177607281</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C16" t="n">
-        <v>348.9932348328213</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D16" t="n">
-        <v>348.9932348328213</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>348.9932348328213</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>348.9932348328213</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>180.8179131526418</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,52 +5434,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.599783924196</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799346</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471173</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.9162705579</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.9162705579</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771459</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771459</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344979</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344979</v>
+        <v>969.128966226355</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.5778825909679</v>
+        <v>748.3363870828249</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,34 +5525,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>618.3141514389024</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171746</v>
+        <v>1232.211221195791</v>
       </c>
       <c r="M18" t="n">
-        <v>744.3684618792639</v>
+        <v>1552.546540725493</v>
       </c>
       <c r="N18" t="n">
-        <v>1548.780040143415</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>684.6639944919752</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W19" t="n">
-        <v>395.2468244550147</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="X19" t="n">
-        <v>395.2468244550147</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.2468244550147</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>243.0706902632331</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>653.9609591077458</v>
+        <v>506.3718661188911</v>
       </c>
       <c r="L21" t="n">
-        <v>883.924064976095</v>
+        <v>1120.26893587578</v>
       </c>
       <c r="M21" t="n">
-        <v>1204.259384505797</v>
+        <v>1440.604255405482</v>
       </c>
       <c r="N21" t="n">
-        <v>1548.780040143415</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>415.8104215925219</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C22" t="n">
-        <v>415.8104215925219</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169049</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>620.242624916905</v>
+        <v>785.7936752259996</v>
       </c>
       <c r="X22" t="n">
-        <v>415.8104215925219</v>
+        <v>785.7936752259996</v>
       </c>
       <c r="Y22" t="n">
-        <v>415.8104215925219</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,7 +5981,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5990,28 +5990,28 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1323.128242957076</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N24" t="n">
-        <v>1465.726837047114</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="O24" t="n">
-        <v>2135.190598349773</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028587</v>
@@ -6151,16 +6151,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273992</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W25" t="n">
-        <v>554.6108700904387</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X25" t="n">
-        <v>426.7786498729187</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y25" t="n">
-        <v>426.7786498729187</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>1002.792923427374</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M27" t="n">
-        <v>1541.916528628193</v>
+        <v>1422.865911461588</v>
       </c>
       <c r="N27" t="n">
-        <v>1886.437184265811</v>
+        <v>1767.386567099205</v>
       </c>
       <c r="O27" t="n">
-        <v>2135.190598349773</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.5481934947357</v>
+        <v>825.1124611285481</v>
       </c>
       <c r="C28" t="n">
-        <v>395.5481934947356</v>
+        <v>656.1762782006413</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947356</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123425</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1025.978788366523</v>
+        <v>1227.553505102318</v>
       </c>
       <c r="V28" t="n">
-        <v>1025.978788366523</v>
+        <v>1227.553505102318</v>
       </c>
       <c r="W28" t="n">
-        <v>1025.978788366523</v>
+        <v>1227.553505102318</v>
       </c>
       <c r="X28" t="n">
-        <v>797.9892374685055</v>
+        <v>1227.553505102318</v>
       </c>
       <c r="Y28" t="n">
-        <v>577.1966583249754</v>
+        <v>1006.760925958788</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>738.0704661731477</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1506.438612565609</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1850.959268203227</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2099.712682287189</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215248</v>
+        <v>637.6995017749884</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749887</v>
+        <v>637.6995017749884</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440238</v>
+        <v>543.3437276440236</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>451.1914993430014</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6622,16 +6622,16 @@
         <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1791.966918252998</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1558.599144747926</v>
+        <v>1533.427428482769</v>
       </c>
       <c r="V31" t="n">
-        <v>1359.67552182341</v>
+        <v>1334.503805558253</v>
       </c>
       <c r="W31" t="n">
-        <v>1126.019217067821</v>
+        <v>1100.847500802663</v>
       </c>
       <c r="X31" t="n">
-        <v>953.790531451174</v>
+        <v>928.6188151860168</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703936</v>
+        <v>763.5871013238573</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,7 +6734,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,22 +6783,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1672.759814717971</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.642871543091</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229679</v>
@@ -6841,40 +6841,40 @@
         <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,10 +6883,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,22 +6926,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515098</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>203.6573820123116</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>614.5476508568242</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>1228.444720613713</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M36" t="n">
-        <v>1548.780040143415</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N36" t="n">
-        <v>1548.780040143415</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7072,19 +7072,19 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010319</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1672.759814717971</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N39" t="n">
-        <v>2477.171392982122</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O39" t="n">
-        <v>2543.548934765509</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P39" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103127</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1002.792923427374</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1499.368801821511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.889457459129</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>463.2137177573978</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>783.5490372870996</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649692</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>175.7242366109975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,13 +9726,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>275.3806960126644</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>209.6442664478654</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11151,10 +11151,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11385,10 +11385,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>68.81356724907252</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.9803689476167</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>66.14901489210368</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>185.6640324209996</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>151.73361345913</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>177.8736900303412</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>23.32177409789793</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>175.8276473741038</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>99.15575737369259</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>5.451519866508469</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>237.4976160711042</v>
+        <v>239.1357756559383</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>196.1854011025617</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>87.12356536756496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-5.542233338928781e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728566</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728565</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
         <v>156411.6238950835</v>
       </c>
       <c r="G2" t="n">
+        <v>156411.6238950834</v>
+      </c>
+      <c r="H2" t="n">
         <v>156411.6238950835</v>
       </c>
-      <c r="H2" t="n">
-        <v>156411.6238950836</v>
-      </c>
       <c r="I2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="J2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.854938108</v>
+        <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728569</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728569</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728569</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086686</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758438</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758875</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.79369057589</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905759184</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477243</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189633</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>23206.58093189636</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>-57709.8632711719</v>
       </c>
       <c r="D6" t="n">
-        <v>-57709.86327117197</v>
+        <v>-57709.86327117193</v>
       </c>
       <c r="E6" t="n">
-        <v>-461523.5322211051</v>
+        <v>-461620.9913470772</v>
       </c>
       <c r="F6" t="n">
-        <v>63636.50425579101</v>
+        <v>63539.04512981887</v>
       </c>
       <c r="G6" t="n">
-        <v>63636.50425579105</v>
+        <v>63539.04512981875</v>
       </c>
       <c r="H6" t="n">
-        <v>63636.50425579108</v>
+        <v>63539.04512981877</v>
       </c>
       <c r="I6" t="n">
-        <v>63636.50425579108</v>
+        <v>63539.04512981874</v>
       </c>
       <c r="J6" t="n">
-        <v>-112786.7149368018</v>
+        <v>-112884.1740627741</v>
       </c>
       <c r="K6" t="n">
-        <v>2985.624900267067</v>
+        <v>2967.131162332563</v>
       </c>
       <c r="L6" t="n">
-        <v>32943.76042006831</v>
+        <v>32943.76042006807</v>
       </c>
       <c r="M6" t="n">
-        <v>-91514.34801290226</v>
+        <v>-91514.34801290203</v>
       </c>
       <c r="N6" t="n">
-        <v>43286.66722093509</v>
+        <v>43286.66722093501</v>
       </c>
       <c r="O6" t="n">
-        <v>43286.66722093512</v>
+        <v>43286.6672209352</v>
       </c>
       <c r="P6" t="n">
-        <v>-875.93808191063</v>
+        <v>-875.9380819106154</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>106.2025864627261</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>193.377752038875</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>167.5946525333124</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>226.7961607607223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>234.8099713575854</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>114.7367954710132</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>84.67773875262091</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>16.3964232265277</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>240.2104698589114</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>143.9178411922028</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>105.4525920154374</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.169834245014017e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31364,10 +31364,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31601,7 +31601,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034983</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>218.0578460103735</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>295.1683754480584</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>278.4799167015761</v>
       </c>
       <c r="M15" t="n">
-        <v>322.7668397349902</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>231.7356543115321</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32324,13 +32324,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,13 +32549,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>148.0734588039824</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>118.6626388367733</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -32570,16 +32570,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,16 +32716,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,10 +32786,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
@@ -32798,25 +32798,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>339.9810121709173</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,16 +33023,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>220.9982683546634</v>
+        <v>395.3701320350619</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -33041,19 +33041,19 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>263.8310857221908</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N33" t="n">
-        <v>76.12363756313295</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>108.262036328304</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>249.7780505767166</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,16 +33901,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,19 +33971,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>241.4090972701574</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,10 +34138,10 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O41" t="n">
         <v>562.4526372540886</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>178.020766529732</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>10.78379835447015</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>90.02710286925503</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>450.3438115339585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>546.4344502803435</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520604</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>510.7658822251611</v>
       </c>
       <c r="M15" t="n">
-        <v>646.3378695629718</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556554</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799264</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>358.3594523497517</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>33.59020268897914</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36136,13 +36136,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>147.3268674777245</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>245.2864368749929</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
@@ -36218,10 +36218,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
@@ -36446,19 +36446,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>144.0389839293311</v>
+        <v>687.9816744311375</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>544.569298182645</v>
+        <v>718.9411618630435</v>
       </c>
       <c r="N27" t="n">
         <v>348.0006622602202</v>
@@ -36689,13 +36689,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>448.3194469477977</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N33" t="n">
-        <v>424.1242998233532</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>107.5154450020462</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>573.3490804046982</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,16 +37543,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>564.980127098139</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>67.04802200342094</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>501.5917963577136</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>243.0697638780551</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>274.515464094862</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
